--- a/linux系统.xlsx
+++ b/linux系统.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W\Desktop\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC81B24-0F8E-4E4A-8DCA-5F25CB19C042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E99330-EC7C-4D09-9305-7D99CD9C33B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="5" r:id="rId1"/>
@@ -6126,6 +6126,33 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6136,33 +6163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6745,7 +6745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -8326,7 +8326,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="161" t="s">
         <v>1109</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -8341,7 +8341,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
+      <c r="A3" s="161"/>
       <c r="B3" s="12" t="s">
         <v>1113</v>
       </c>
@@ -8354,7 +8354,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
+      <c r="A4" s="161"/>
       <c r="B4" s="12" t="s">
         <v>1116</v>
       </c>
@@ -8367,7 +8367,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.05" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
+      <c r="A5" s="161"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15"/>
       <c r="D5" s="185"/>
@@ -8376,7 +8376,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
+      <c r="A6" s="161"/>
       <c r="B6" s="12" t="s">
         <v>1120</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="12" t="s">
         <v>1123</v>
       </c>
@@ -8402,7 +8402,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
+      <c r="A8" s="161"/>
       <c r="B8" s="17" t="s">
         <v>1126</v>
       </c>
@@ -8413,7 +8413,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="12" t="s">
         <v>1128</v>
       </c>
@@ -8428,7 +8428,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
+      <c r="A10" s="161"/>
       <c r="B10" s="12" t="s">
         <v>1132</v>
       </c>
@@ -8439,7 +8439,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="12" t="s">
         <v>1134</v>
       </c>
@@ -8452,7 +8452,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="12" t="s">
         <v>1137</v>
       </c>
@@ -8465,7 +8465,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="12" t="s">
         <v>1140</v>
       </c>
@@ -8478,7 +8478,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="12" t="s">
         <v>1143</v>
       </c>
@@ -8491,7 +8491,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="12" t="s">
         <v>1146</v>
       </c>
@@ -8504,7 +8504,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="12" t="s">
         <v>1149</v>
       </c>
@@ -8519,7 +8519,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="12" t="s">
         <v>1153</v>
       </c>
@@ -8532,7 +8532,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="12" t="s">
         <v>1156</v>
       </c>
@@ -8545,7 +8545,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="20" t="s">
         <v>1159</v>
       </c>
@@ -8558,7 +8558,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="20" t="s">
         <v>1162</v>
       </c>
@@ -8571,7 +8571,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="20" t="s">
         <v>1165</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="22" t="s">
         <v>1168</v>
       </c>
@@ -8595,7 +8595,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="22" t="s">
         <v>1170</v>
       </c>
@@ -8608,7 +8608,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="22" t="s">
         <v>1173</v>
       </c>
@@ -8617,7 +8617,7 @@
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="12" t="s">
         <v>1174</v>
       </c>
@@ -8628,7 +8628,7 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="12" t="s">
         <v>1176</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="12" t="s">
         <v>1178</v>
       </c>
@@ -9157,7 +9157,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="160" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="84" t="s">
@@ -9170,7 +9170,7 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
+      <c r="A2" s="160"/>
       <c r="B2" s="84" t="s">
         <v>156</v>
       </c>
@@ -9181,7 +9181,7 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A3" s="151"/>
+      <c r="A3" s="160"/>
       <c r="B3" s="35" t="s">
         <v>158</v>
       </c>
@@ -9192,7 +9192,7 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
+      <c r="A4" s="160"/>
       <c r="B4" s="35" t="s">
         <v>160</v>
       </c>
@@ -9203,7 +9203,7 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="35" t="s">
         <v>162</v>
       </c>
@@ -9214,7 +9214,7 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="35" t="s">
         <v>164</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A7" s="151"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="35" t="s">
         <v>166</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="35" t="s">
         <v>168</v>
       </c>
@@ -9247,7 +9247,7 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="35" t="s">
         <v>170</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="35" t="s">
         <v>172</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="35" t="s">
         <v>174</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="161" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="35" t="s">
@@ -9317,7 +9317,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="35" t="s">
         <v>184</v>
       </c>
@@ -9328,7 +9328,7 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="35" t="s">
         <v>186</v>
       </c>
@@ -9339,7 +9339,7 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="35" t="s">
         <v>188</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="35" t="s">
         <v>190</v>
       </c>
@@ -9361,7 +9361,7 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="35" t="s">
         <v>192</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="162" t="s">
         <v>193</v>
       </c>
       <c r="B20" s="35" t="s">
@@ -9387,7 +9387,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="35" t="s">
         <v>196</v>
       </c>
@@ -9398,7 +9398,7 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="154"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="22" t="s">
         <v>198</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="154"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="12" t="s">
         <v>200</v>
       </c>
@@ -9420,7 +9420,7 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A24" s="154"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="22" t="s">
         <v>202</v>
       </c>
@@ -9431,7 +9431,7 @@
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="12" t="s">
         <v>204</v>
       </c>
@@ -9442,7 +9442,7 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="12" t="s">
         <v>206</v>
       </c>
@@ -9453,7 +9453,7 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="154"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="12" t="s">
         <v>208</v>
       </c>
@@ -9464,7 +9464,7 @@
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="154"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="87" t="s">
         <v>210</v>
       </c>
@@ -9475,7 +9475,7 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A29" s="154"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="87" t="s">
         <v>212</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="154"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="88" t="s">
         <v>214</v>
       </c>
@@ -9497,7 +9497,7 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A31" s="154"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="87" t="s">
         <v>216</v>
       </c>
@@ -9508,7 +9508,7 @@
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A32" s="154"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="87" t="s">
         <v>218</v>
       </c>
@@ -9519,7 +9519,7 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A33" s="154"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="87" t="s">
         <v>220</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A34" s="154"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="87" t="s">
         <v>222</v>
       </c>
@@ -9541,7 +9541,7 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A35" s="154"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="87" t="s">
         <v>224</v>
       </c>
@@ -9552,7 +9552,7 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="154"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="87" t="s">
         <v>226</v>
       </c>
@@ -9563,7 +9563,7 @@
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A37" s="154"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="22" t="s">
         <v>227</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A38" s="154"/>
+      <c r="A38" s="163"/>
       <c r="B38" s="12" t="s">
         <v>229</v>
       </c>
@@ -9585,7 +9585,7 @@
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A39" s="154"/>
+      <c r="A39" s="163"/>
       <c r="B39" s="17" t="s">
         <v>231</v>
       </c>
@@ -9596,7 +9596,7 @@
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A40" s="154"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="12" t="s">
         <v>233</v>
       </c>
@@ -9607,7 +9607,7 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A41" s="154"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="12" t="s">
         <v>235</v>
       </c>
@@ -9618,7 +9618,7 @@
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A42" s="154"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="12" t="s">
         <v>237</v>
       </c>
@@ -9629,7 +9629,7 @@
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A43" s="154"/>
+      <c r="A43" s="163"/>
       <c r="B43" s="12" t="s">
         <v>239</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="154"/>
+      <c r="A44" s="163"/>
       <c r="B44" s="12" t="s">
         <v>241</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A45" s="154"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="22" t="s">
         <v>243</v>
       </c>
@@ -9662,7 +9662,7 @@
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A46" s="154"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="22" t="s">
         <v>245</v>
       </c>
@@ -9675,7 +9675,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="154"/>
+      <c r="A47" s="163"/>
       <c r="B47" s="22" t="s">
         <v>248</v>
       </c>
@@ -9686,7 +9686,7 @@
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A48" s="154"/>
+      <c r="A48" s="163"/>
       <c r="B48" s="22" t="s">
         <v>250</v>
       </c>
@@ -9697,7 +9697,7 @@
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="154"/>
+      <c r="A49" s="163"/>
       <c r="B49" s="22" t="s">
         <v>252</v>
       </c>
@@ -9708,7 +9708,7 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A50" s="154"/>
+      <c r="A50" s="163"/>
       <c r="B50" s="44" t="s">
         <v>254</v>
       </c>
@@ -9719,7 +9719,7 @@
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A51" s="154"/>
+      <c r="A51" s="163"/>
       <c r="B51" s="44" t="s">
         <v>256</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A52" s="154"/>
+      <c r="A52" s="163"/>
       <c r="B52" s="44" t="s">
         <v>258</v>
       </c>
@@ -9741,7 +9741,7 @@
       <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A53" s="154"/>
+      <c r="A53" s="163"/>
       <c r="B53" s="12" t="s">
         <v>260</v>
       </c>
@@ -9752,7 +9752,7 @@
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="154"/>
+      <c r="A54" s="163"/>
       <c r="B54" s="12" t="s">
         <v>261</v>
       </c>
@@ -9763,7 +9763,7 @@
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A55" s="154"/>
+      <c r="A55" s="163"/>
       <c r="B55" s="12" t="s">
         <v>263</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="154"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="12" t="s">
         <v>264</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="154"/>
+      <c r="A57" s="163"/>
       <c r="B57" s="22" t="s">
         <v>266</v>
       </c>
@@ -9796,7 +9796,7 @@
       <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A58" s="154"/>
+      <c r="A58" s="163"/>
       <c r="B58" s="22" t="s">
         <v>268</v>
       </c>
@@ -9809,7 +9809,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A59" s="154"/>
+      <c r="A59" s="163"/>
       <c r="B59" s="22" t="s">
         <v>271</v>
       </c>
@@ -9820,7 +9820,7 @@
       <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="154"/>
+      <c r="A60" s="163"/>
       <c r="B60" s="22" t="s">
         <v>273</v>
       </c>
@@ -9829,7 +9829,7 @@
       <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="154"/>
+      <c r="A61" s="163"/>
       <c r="B61" s="21" t="s">
         <v>274</v>
       </c>
@@ -9840,7 +9840,7 @@
       <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="154"/>
+      <c r="A62" s="163"/>
       <c r="B62" s="21" t="s">
         <v>276</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="E62" s="43"/>
     </row>
     <row r="63" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="154"/>
+      <c r="A63" s="163"/>
       <c r="B63" s="12" t="s">
         <v>278</v>
       </c>
@@ -9862,7 +9862,7 @@
       <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A64" s="154"/>
+      <c r="A64" s="163"/>
       <c r="B64" s="12" t="s">
         <v>280</v>
       </c>
@@ -9873,7 +9873,7 @@
       <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A65" s="154"/>
+      <c r="A65" s="163"/>
       <c r="B65" s="12" t="s">
         <v>281</v>
       </c>
@@ -9884,7 +9884,7 @@
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A66" s="154"/>
+      <c r="A66" s="163"/>
       <c r="B66" s="12" t="s">
         <v>283</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A67" s="154"/>
+      <c r="A67" s="163"/>
       <c r="B67" s="90" t="s">
         <v>285</v>
       </c>
@@ -9906,7 +9906,7 @@
       <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A68" s="154"/>
+      <c r="A68" s="163"/>
       <c r="B68" s="90" t="s">
         <v>287</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" ht="77.55" x14ac:dyDescent="0.25">
-      <c r="A69" s="154"/>
+      <c r="A69" s="163"/>
       <c r="B69" s="91" t="s">
         <v>289</v>
       </c>
@@ -9930,7 +9930,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="62.05" x14ac:dyDescent="0.25">
-      <c r="A70" s="155" t="s">
+      <c r="A70" s="151" t="s">
         <v>292</v>
       </c>
       <c r="B70" s="92" t="s">
@@ -9945,7 +9945,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="156"/>
+      <c r="A71" s="152"/>
       <c r="B71" s="12" t="s">
         <v>296</v>
       </c>
@@ -9956,7 +9956,7 @@
       <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" ht="46.55" x14ac:dyDescent="0.25">
-      <c r="A72" s="156"/>
+      <c r="A72" s="152"/>
       <c r="B72" s="33" t="s">
         <v>298</v>
       </c>
@@ -9969,7 +9969,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A73" s="156"/>
+      <c r="A73" s="152"/>
       <c r="B73" s="12" t="s">
         <v>301</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A74" s="157"/>
+      <c r="A74" s="153"/>
       <c r="B74" s="12" t="s">
         <v>304</v>
       </c>
@@ -10006,7 +10006,7 @@
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A76" s="155" t="s">
+      <c r="A76" s="151" t="s">
         <v>309</v>
       </c>
       <c r="B76" s="93" t="s">
@@ -10019,7 +10019,7 @@
       <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A77" s="156"/>
+      <c r="A77" s="152"/>
       <c r="B77" s="93" t="s">
         <v>312</v>
       </c>
@@ -10032,7 +10032,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A78" s="156"/>
+      <c r="A78" s="152"/>
       <c r="B78" s="93" t="s">
         <v>315</v>
       </c>
@@ -10045,7 +10045,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A79" s="156"/>
+      <c r="A79" s="152"/>
       <c r="B79" s="93" t="s">
         <v>318</v>
       </c>
@@ -10058,7 +10058,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A80" s="156"/>
+      <c r="A80" s="152"/>
       <c r="B80" s="93" t="s">
         <v>321</v>
       </c>
@@ -10071,7 +10071,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A81" s="157"/>
+      <c r="A81" s="153"/>
       <c r="B81" s="93" t="s">
         <v>324</v>
       </c>
@@ -10082,7 +10082,7 @@
       <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A82" s="155" t="s">
+      <c r="A82" s="151" t="s">
         <v>326</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -10095,7 +10095,7 @@
       <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A83" s="156"/>
+      <c r="A83" s="152"/>
       <c r="B83" s="12" t="s">
         <v>329</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A84" s="156"/>
+      <c r="A84" s="152"/>
       <c r="B84" s="12" t="s">
         <v>331</v>
       </c>
@@ -10201,7 +10201,7 @@
       <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="151" t="s">
         <v>345</v>
       </c>
       <c r="B93" s="21" t="s">
@@ -10214,7 +10214,7 @@
       <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A94" s="156"/>
+      <c r="A94" s="152"/>
       <c r="B94" s="21" t="s">
         <v>348</v>
       </c>
@@ -10225,7 +10225,7 @@
       <c r="E94" s="12"/>
     </row>
     <row r="95" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A95" s="156"/>
+      <c r="A95" s="152"/>
       <c r="B95" s="96" t="s">
         <v>350</v>
       </c>
@@ -10236,7 +10236,7 @@
       <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A96" s="156"/>
+      <c r="A96" s="152"/>
       <c r="B96" s="96" t="s">
         <v>352</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="E96" s="12"/>
     </row>
     <row r="97" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A97" s="156"/>
+      <c r="A97" s="152"/>
       <c r="B97" s="96" t="s">
         <v>354</v>
       </c>
@@ -10258,7 +10258,7 @@
       <c r="E97" s="12"/>
     </row>
     <row r="98" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A98" s="156"/>
+      <c r="A98" s="152"/>
       <c r="B98" s="96" t="s">
         <v>356</v>
       </c>
@@ -10269,7 +10269,7 @@
       <c r="E98" s="12"/>
     </row>
     <row r="99" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A99" s="156"/>
+      <c r="A99" s="152"/>
       <c r="B99" s="96" t="s">
         <v>358</v>
       </c>
@@ -10280,7 +10280,7 @@
       <c r="E99" s="12"/>
     </row>
     <row r="100" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A100" s="156"/>
+      <c r="A100" s="152"/>
       <c r="B100" s="96" t="s">
         <v>360</v>
       </c>
@@ -10291,7 +10291,7 @@
       <c r="E100" s="12"/>
     </row>
     <row r="101" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A101" s="156"/>
+      <c r="A101" s="152"/>
       <c r="B101" s="96" t="s">
         <v>362</v>
       </c>
@@ -10302,7 +10302,7 @@
       <c r="E101" s="12"/>
     </row>
     <row r="102" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A102" s="156"/>
+      <c r="A102" s="152"/>
       <c r="B102" s="97" t="s">
         <v>364</v>
       </c>
@@ -10313,7 +10313,7 @@
       <c r="E102" s="12"/>
     </row>
     <row r="103" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A103" s="156"/>
+      <c r="A103" s="152"/>
       <c r="B103" s="96" t="s">
         <v>366</v>
       </c>
@@ -10324,7 +10324,7 @@
       <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A104" s="156"/>
+      <c r="A104" s="152"/>
       <c r="B104" s="12" t="s">
         <v>368</v>
       </c>
@@ -10335,7 +10335,7 @@
       <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A105" s="156"/>
+      <c r="A105" s="152"/>
       <c r="B105" s="12" t="s">
         <v>370</v>
       </c>
@@ -10346,7 +10346,7 @@
       <c r="E105" s="12"/>
     </row>
     <row r="106" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A106" s="156"/>
+      <c r="A106" s="152"/>
       <c r="B106" s="21" t="s">
         <v>372</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A107" s="156"/>
+      <c r="A107" s="152"/>
       <c r="B107" s="21" t="s">
         <v>374</v>
       </c>
@@ -10368,7 +10368,7 @@
       <c r="E107" s="12"/>
     </row>
     <row r="108" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A108" s="156"/>
+      <c r="A108" s="152"/>
       <c r="B108" s="21" t="s">
         <v>376</v>
       </c>
@@ -10379,7 +10379,7 @@
       <c r="E108" s="12"/>
     </row>
     <row r="109" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A109" s="156"/>
+      <c r="A109" s="152"/>
       <c r="B109" s="21" t="s">
         <v>378</v>
       </c>
@@ -10390,7 +10390,7 @@
       <c r="E109" s="12"/>
     </row>
     <row r="110" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A110" s="156"/>
+      <c r="A110" s="152"/>
       <c r="B110" s="21" t="s">
         <v>380</v>
       </c>
@@ -10401,7 +10401,7 @@
       <c r="E110" s="12"/>
     </row>
     <row r="111" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A111" s="156"/>
+      <c r="A111" s="152"/>
       <c r="B111" s="21" t="s">
         <v>382</v>
       </c>
@@ -10412,7 +10412,7 @@
       <c r="E111" s="12"/>
     </row>
     <row r="112" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A112" s="156"/>
+      <c r="A112" s="152"/>
       <c r="B112" s="21" t="s">
         <v>384</v>
       </c>
@@ -10423,14 +10423,14 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A113" s="156"/>
+      <c r="A113" s="152"/>
       <c r="B113" s="21"/>
       <c r="C113" s="33"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A114" s="156"/>
+      <c r="A114" s="152"/>
       <c r="B114" s="21" t="s">
         <v>386</v>
       </c>
@@ -10441,7 +10441,7 @@
       <c r="E114" s="12"/>
     </row>
     <row r="115" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A115" s="156"/>
+      <c r="A115" s="152"/>
       <c r="B115" s="21" t="s">
         <v>388</v>
       </c>
@@ -10452,7 +10452,7 @@
       <c r="E115" s="12"/>
     </row>
     <row r="116" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A116" s="156"/>
+      <c r="A116" s="152"/>
       <c r="B116" s="21" t="s">
         <v>390</v>
       </c>
@@ -10463,7 +10463,7 @@
       <c r="E116" s="12"/>
     </row>
     <row r="117" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A117" s="156"/>
+      <c r="A117" s="152"/>
       <c r="B117" s="21" t="s">
         <v>392</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="E117" s="12"/>
     </row>
     <row r="118" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A118" s="159" t="s">
+      <c r="A118" s="155" t="s">
         <v>394</v>
       </c>
       <c r="B118" s="77" t="s">
@@ -10487,7 +10487,7 @@
       <c r="E118" s="12"/>
     </row>
     <row r="119" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A119" s="160"/>
+      <c r="A119" s="156"/>
       <c r="B119" s="21" t="s">
         <v>274</v>
       </c>
@@ -10498,7 +10498,7 @@
       <c r="E119" s="12"/>
     </row>
     <row r="120" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A120" s="160"/>
+      <c r="A120" s="156"/>
       <c r="B120" s="21" t="s">
         <v>396</v>
       </c>
@@ -10509,7 +10509,7 @@
       <c r="E120" s="12"/>
     </row>
     <row r="121" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A121" s="160"/>
+      <c r="A121" s="156"/>
       <c r="B121" s="21" t="s">
         <v>276</v>
       </c>
@@ -10520,7 +10520,7 @@
       <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A122" s="161"/>
+      <c r="A122" s="157"/>
       <c r="B122" s="21" t="s">
         <v>398</v>
       </c>
@@ -10531,7 +10531,7 @@
       <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A123" s="155" t="s">
+      <c r="A123" s="151" t="s">
         <v>400</v>
       </c>
       <c r="B123" s="21" t="s">
@@ -10544,7 +10544,7 @@
       <c r="E123" s="12"/>
     </row>
     <row r="124" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A124" s="156"/>
+      <c r="A124" s="152"/>
       <c r="B124" s="21" t="s">
         <v>403</v>
       </c>
@@ -10555,7 +10555,7 @@
       <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A125" s="156"/>
+      <c r="A125" s="152"/>
       <c r="B125" s="21" t="s">
         <v>405</v>
       </c>
@@ -10566,7 +10566,7 @@
       <c r="E125" s="12"/>
     </row>
     <row r="126" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A126" s="156"/>
+      <c r="A126" s="152"/>
       <c r="B126" s="21" t="s">
         <v>407</v>
       </c>
@@ -10577,7 +10577,7 @@
       <c r="E126" s="12"/>
     </row>
     <row r="127" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A127" s="156"/>
+      <c r="A127" s="152"/>
       <c r="B127" s="21" t="s">
         <v>409</v>
       </c>
@@ -10588,7 +10588,7 @@
       <c r="E127" s="12"/>
     </row>
     <row r="128" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A128" s="156"/>
+      <c r="A128" s="152"/>
       <c r="B128" s="21" t="s">
         <v>411</v>
       </c>
@@ -10599,7 +10599,7 @@
       <c r="E128" s="12"/>
     </row>
     <row r="129" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A129" s="156"/>
+      <c r="A129" s="152"/>
       <c r="B129" s="12" t="s">
         <v>413</v>
       </c>
@@ -10610,7 +10610,7 @@
       <c r="E129" s="12"/>
     </row>
     <row r="130" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A130" s="156"/>
+      <c r="A130" s="152"/>
       <c r="B130" s="12" t="s">
         <v>415</v>
       </c>
@@ -10621,7 +10621,7 @@
       <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A131" s="156"/>
+      <c r="A131" s="152"/>
       <c r="B131" s="12" t="s">
         <v>417</v>
       </c>
@@ -10632,7 +10632,7 @@
       <c r="E131" s="12"/>
     </row>
     <row r="132" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A132" s="157"/>
+      <c r="A132" s="153"/>
       <c r="B132" s="99" t="s">
         <v>419</v>
       </c>
@@ -10643,7 +10643,7 @@
       <c r="E132" s="12"/>
     </row>
     <row r="133" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A133" s="162" t="s">
+      <c r="A133" s="158" t="s">
         <v>421</v>
       </c>
       <c r="B133" s="21" t="s">
@@ -10656,7 +10656,7 @@
       <c r="E133" s="12"/>
     </row>
     <row r="134" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A134" s="162"/>
+      <c r="A134" s="158"/>
       <c r="B134" s="21" t="s">
         <v>424</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="E134" s="12"/>
     </row>
     <row r="135" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A135" s="162"/>
+      <c r="A135" s="158"/>
       <c r="B135" s="21" t="s">
         <v>426</v>
       </c>
@@ -10678,7 +10678,7 @@
       <c r="E135" s="12"/>
     </row>
     <row r="136" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A136" s="162"/>
+      <c r="A136" s="158"/>
       <c r="B136" s="21" t="s">
         <v>428</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="E136" s="12"/>
     </row>
     <row r="137" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A137" s="162"/>
+      <c r="A137" s="158"/>
       <c r="B137" s="21" t="s">
         <v>430</v>
       </c>
@@ -10700,7 +10700,7 @@
       <c r="E137" s="12"/>
     </row>
     <row r="138" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A138" s="162"/>
+      <c r="A138" s="158"/>
       <c r="B138" s="21" t="s">
         <v>432</v>
       </c>
@@ -10711,7 +10711,7 @@
       <c r="E138" s="12"/>
     </row>
     <row r="139" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A139" s="162"/>
+      <c r="A139" s="158"/>
       <c r="B139" s="21" t="s">
         <v>434</v>
       </c>
@@ -10722,7 +10722,7 @@
       <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A140" s="162"/>
+      <c r="A140" s="158"/>
       <c r="B140" s="21" t="s">
         <v>436</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="E140" s="12"/>
     </row>
     <row r="141" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A141" s="162"/>
+      <c r="A141" s="158"/>
       <c r="B141" s="21" t="s">
         <v>438</v>
       </c>
@@ -10744,7 +10744,7 @@
       <c r="E141" s="12"/>
     </row>
     <row r="142" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A142" s="162"/>
+      <c r="A142" s="158"/>
       <c r="B142" s="21" t="s">
         <v>440</v>
       </c>
@@ -10755,7 +10755,7 @@
       <c r="E142" s="12"/>
     </row>
     <row r="143" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A143" s="163"/>
+      <c r="A143" s="159"/>
       <c r="B143" s="21" t="s">
         <v>442</v>
       </c>
@@ -10775,7 +10775,7 @@
       <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A145" s="155" t="s">
+      <c r="A145" s="151" t="s">
         <v>445</v>
       </c>
       <c r="B145" s="21" t="s">
@@ -10790,7 +10790,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A146" s="156"/>
+      <c r="A146" s="152"/>
       <c r="B146" s="21" t="s">
         <v>449</v>
       </c>
@@ -10801,7 +10801,7 @@
       <c r="E146" s="12"/>
     </row>
     <row r="147" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A147" s="156"/>
+      <c r="A147" s="152"/>
       <c r="B147" s="21" t="s">
         <v>451</v>
       </c>
@@ -10812,7 +10812,7 @@
       <c r="E147" s="12"/>
     </row>
     <row r="148" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A148" s="156"/>
+      <c r="A148" s="152"/>
       <c r="B148" s="12" t="s">
         <v>453</v>
       </c>
@@ -10823,7 +10823,7 @@
       <c r="E148" s="12"/>
     </row>
     <row r="149" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A149" s="156"/>
+      <c r="A149" s="152"/>
       <c r="B149" s="12" t="s">
         <v>455</v>
       </c>
@@ -10834,7 +10834,7 @@
       <c r="E149" s="12"/>
     </row>
     <row r="150" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A150" s="156"/>
+      <c r="A150" s="152"/>
       <c r="B150" s="43" t="s">
         <v>457</v>
       </c>
@@ -10843,7 +10843,7 @@
       <c r="E150" s="12"/>
     </row>
     <row r="151" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A151" s="156"/>
+      <c r="A151" s="152"/>
       <c r="B151" s="21" t="s">
         <v>458</v>
       </c>
@@ -10854,7 +10854,7 @@
       <c r="E151" s="12"/>
     </row>
     <row r="152" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A152" s="156"/>
+      <c r="A152" s="152"/>
       <c r="B152" s="21" t="s">
         <v>460</v>
       </c>
@@ -10863,7 +10863,7 @@
       <c r="E152" s="12"/>
     </row>
     <row r="153" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A153" s="156"/>
+      <c r="A153" s="152"/>
       <c r="B153" s="21" t="s">
         <v>461</v>
       </c>
@@ -10872,7 +10872,7 @@
       <c r="E153" s="12"/>
     </row>
     <row r="154" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A154" s="156"/>
+      <c r="A154" s="152"/>
       <c r="B154" s="21" t="s">
         <v>462</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="E154" s="12"/>
     </row>
     <row r="155" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A155" s="156"/>
+      <c r="A155" s="152"/>
       <c r="B155" s="21" t="s">
         <v>464</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="E155" s="12"/>
     </row>
     <row r="156" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A156" s="155" t="s">
+      <c r="A156" s="151" t="s">
         <v>24</v>
       </c>
       <c r="B156" s="12" t="s">
@@ -10909,7 +10909,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A157" s="156"/>
+      <c r="A157" s="152"/>
       <c r="B157" s="12" t="s">
         <v>469</v>
       </c>
@@ -10918,7 +10918,7 @@
       <c r="E157" s="12"/>
     </row>
     <row r="158" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A158" s="156"/>
+      <c r="A158" s="152"/>
       <c r="B158" s="12" t="s">
         <v>470</v>
       </c>
@@ -10929,7 +10929,7 @@
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A159" s="156"/>
+      <c r="A159" s="152"/>
       <c r="B159" s="128" t="s">
         <v>1212</v>
       </c>
@@ -10938,7 +10938,7 @@
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A160" s="156"/>
+      <c r="A160" s="152"/>
       <c r="B160" s="12" t="s">
         <v>473</v>
       </c>
@@ -10947,7 +10947,7 @@
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A161" s="156"/>
+      <c r="A161" s="152"/>
       <c r="B161" s="12" t="s">
         <v>474</v>
       </c>
@@ -10960,7 +10960,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A162" s="156"/>
+      <c r="A162" s="152"/>
       <c r="B162" s="12" t="s">
         <v>477</v>
       </c>
@@ -10971,7 +10971,7 @@
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A163" s="156"/>
+      <c r="A163" s="152"/>
       <c r="B163" s="12" t="s">
         <v>479</v>
       </c>
@@ -10982,7 +10982,7 @@
       <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A164" s="156"/>
+      <c r="A164" s="152"/>
       <c r="B164" s="12" t="s">
         <v>481</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="E164" s="12"/>
     </row>
     <row r="165" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A165" s="156"/>
+      <c r="A165" s="152"/>
       <c r="B165" s="12" t="s">
         <v>483</v>
       </c>
@@ -11004,7 +11004,7 @@
       <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A166" s="157"/>
+      <c r="A166" s="153"/>
       <c r="B166" s="12" t="s">
         <v>485</v>
       </c>
@@ -11208,7 +11208,7 @@
       <c r="E183" s="58"/>
     </row>
     <row r="184" spans="1:5" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A184" s="158"/>
+      <c r="A184" s="154"/>
       <c r="B184" s="12" t="s">
         <v>522</v>
       </c>
@@ -11229,6 +11229,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A76:A81"/>
     <mergeCell ref="A145:A155"/>
     <mergeCell ref="A156:A166"/>
     <mergeCell ref="A183:A185"/>
@@ -11237,11 +11242,6 @@
     <mergeCell ref="A118:A122"/>
     <mergeCell ref="A123:A132"/>
     <mergeCell ref="A133:A143"/>
-    <mergeCell ref="A1:A11"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A76:A81"/>
   </mergeCells>
   <phoneticPr fontId="50" type="noConversion"/>
   <hyperlinks>
@@ -11302,7 +11302,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.3" x14ac:dyDescent="0.25">
-      <c r="A3" s="162"/>
+      <c r="A3" s="158"/>
       <c r="B3" s="12" t="s">
         <v>329</v>
       </c>
@@ -11315,7 +11315,7 @@
       <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6" ht="18.3" x14ac:dyDescent="0.25">
-      <c r="A4" s="162"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="12" t="s">
         <v>331</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:6" ht="18.3" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="21" t="s">
         <v>333</v>
       </c>
@@ -11341,7 +11341,7 @@
       <c r="F5" s="75"/>
     </row>
     <row r="6" spans="1:6" ht="18.3" x14ac:dyDescent="0.25">
-      <c r="A6" s="162"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="21" t="s">
         <v>530</v>
       </c>
@@ -11356,7 +11356,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.3" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="21" t="s">
         <v>337</v>
       </c>
@@ -11369,7 +11369,7 @@
       <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:6" ht="18.3" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="21" t="s">
         <v>341</v>
       </c>
@@ -11384,7 +11384,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.3" x14ac:dyDescent="0.25">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="158" t="s">
         <v>531</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -11401,7 +11401,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="21" t="s">
         <v>192</v>
       </c>
@@ -11410,7 +11410,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="77" t="s">
         <v>266</v>
       </c>
@@ -11419,7 +11419,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="77" t="s">
         <v>268</v>
       </c>
@@ -11428,7 +11428,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="77" t="s">
         <v>271</v>
       </c>
@@ -11437,7 +11437,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="77" t="s">
         <v>243</v>
       </c>
@@ -11446,7 +11446,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="77" t="s">
         <v>536</v>
       </c>
@@ -11455,7 +11455,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="77" t="s">
         <v>538</v>
       </c>
@@ -11464,7 +11464,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="77" t="s">
         <v>540</v>
       </c>
@@ -11473,7 +11473,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="79" t="s">
         <v>542</v>
       </c>
@@ -11482,7 +11482,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="79" t="s">
         <v>544</v>
       </c>
@@ -11491,7 +11491,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="62.05" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="79" t="s">
         <v>546</v>
       </c>
@@ -11503,7 +11503,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="79" t="s">
         <v>548</v>
       </c>
@@ -11513,7 +11513,7 @@
       <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="21" t="s">
         <v>378</v>
       </c>
@@ -11522,7 +11522,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="21" t="s">
         <v>220</v>
       </c>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="162"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="21" t="s">
         <v>222</v>
       </c>
@@ -11540,7 +11540,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="162"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="21" t="s">
         <v>550</v>
       </c>
@@ -11549,7 +11549,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="162"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="21" t="s">
         <v>415</v>
       </c>
@@ -11558,7 +11558,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
+      <c r="A27" s="158"/>
       <c r="B27" s="21" t="s">
         <v>552</v>
       </c>
@@ -11567,7 +11567,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="162"/>
+      <c r="A28" s="158"/>
       <c r="B28" s="21" t="s">
         <v>554</v>
       </c>
@@ -11576,7 +11576,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="162"/>
+      <c r="A29" s="158"/>
       <c r="B29" s="21" t="s">
         <v>555</v>
       </c>
@@ -11585,7 +11585,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="158"/>
       <c r="B30" s="21" t="s">
         <v>557</v>
       </c>
@@ -11594,7 +11594,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="158"/>
       <c r="B31" s="21" t="s">
         <v>273</v>
       </c>
@@ -11603,7 +11603,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
+      <c r="A32" s="158"/>
       <c r="B32" s="21" t="s">
         <v>276</v>
       </c>
@@ -11612,7 +11612,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
+      <c r="A33" s="158"/>
       <c r="B33" s="21" t="s">
         <v>274</v>
       </c>
@@ -11621,7 +11621,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="163"/>
+      <c r="A34" s="159"/>
       <c r="B34" s="21" t="s">
         <v>398</v>
       </c>
@@ -11630,7 +11630,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="159" t="s">
+      <c r="A35" s="155" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -11639,7 +11639,7 @@
       <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="160"/>
+      <c r="A36" s="156"/>
       <c r="B36" s="12" t="s">
         <v>470</v>
       </c>
@@ -11648,21 +11648,21 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="160"/>
+      <c r="A37" s="156"/>
       <c r="B37" s="12" t="s">
         <v>472</v>
       </c>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="160"/>
+      <c r="A38" s="156"/>
       <c r="B38" s="12" t="s">
         <v>473</v>
       </c>
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="160"/>
+      <c r="A39" s="156"/>
       <c r="B39" s="12" t="s">
         <v>474</v>
       </c>
@@ -11671,7 +11671,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="160"/>
+      <c r="A40" s="156"/>
       <c r="B40" s="12" t="s">
         <v>477</v>
       </c>
@@ -11680,7 +11680,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="160"/>
+      <c r="A41" s="156"/>
       <c r="B41" s="12" t="s">
         <v>479</v>
       </c>
@@ -11689,7 +11689,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="160"/>
+      <c r="A42" s="156"/>
       <c r="B42" s="12" t="s">
         <v>481</v>
       </c>
@@ -11698,7 +11698,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="160"/>
+      <c r="A43" s="156"/>
       <c r="B43" s="12" t="s">
         <v>483</v>
       </c>
@@ -11743,7 +11743,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="151" t="s">
         <v>568</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -11752,7 +11752,7 @@
       <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="156"/>
+      <c r="A49" s="152"/>
       <c r="B49" s="12" t="s">
         <v>570</v>
       </c>
@@ -11761,7 +11761,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="157"/>
+      <c r="A50" s="153"/>
       <c r="B50" s="12" t="s">
         <v>572</v>
       </c>
@@ -11770,7 +11770,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="155" t="s">
+      <c r="A51" s="151" t="s">
         <v>574</v>
       </c>
       <c r="B51" s="33" t="s">
@@ -11781,7 +11781,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="157"/>
+      <c r="A52" s="153"/>
       <c r="B52" s="12" t="s">
         <v>577</v>
       </c>
@@ -11790,7 +11790,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="155" t="s">
+      <c r="A53" s="151" t="s">
         <v>519</v>
       </c>
       <c r="B53" s="82" t="s">
@@ -11799,7 +11799,7 @@
       <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="157"/>
+      <c r="A54" s="153"/>
       <c r="B54" s="12" t="s">
         <v>580</v>
       </c>
@@ -11832,7 +11832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30D4E74-DB89-4E7B-9110-31335FFD197F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:A22"/>
     </sheetView>
   </sheetViews>
@@ -13157,7 +13157,7 @@
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A45" s="162"/>
+      <c r="A45" s="158"/>
       <c r="B45" s="39" t="s">
         <v>973</v>
       </c>
@@ -13167,7 +13167,7 @@
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+      <c r="A46" s="158"/>
       <c r="B46" s="41" t="s">
         <v>975</v>
       </c>
@@ -13177,7 +13177,7 @@
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="162"/>
+      <c r="A47" s="158"/>
       <c r="B47" s="39" t="s">
         <v>977</v>
       </c>
@@ -13187,7 +13187,7 @@
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A48" s="162"/>
+      <c r="A48" s="158"/>
       <c r="B48" s="39" t="s">
         <v>979</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="41" t="s">
         <v>980</v>
       </c>
@@ -13207,7 +13207,7 @@
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
+      <c r="A50" s="158"/>
       <c r="B50" s="41" t="s">
         <v>982</v>
       </c>
@@ -13217,7 +13217,7 @@
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
+      <c r="A51" s="158"/>
       <c r="B51" s="41" t="s">
         <v>984</v>
       </c>
@@ -13227,7 +13227,7 @@
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
+      <c r="A52" s="158"/>
       <c r="B52" s="41" t="s">
         <v>986</v>
       </c>
@@ -13237,7 +13237,7 @@
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A53" s="162"/>
+      <c r="A53" s="158"/>
       <c r="B53" s="41" t="s">
         <v>988</v>
       </c>
@@ -13247,7 +13247,7 @@
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
+      <c r="A54" s="158"/>
       <c r="B54" s="39" t="s">
         <v>990</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
+      <c r="A55" s="158"/>
       <c r="B55" s="34" t="s">
         <v>991</v>
       </c>
@@ -13265,7 +13265,7 @@
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
+      <c r="A56" s="158"/>
       <c r="B56" s="34" t="s">
         <v>993</v>
       </c>
@@ -13275,7 +13275,7 @@
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="163"/>
+      <c r="A57" s="159"/>
       <c r="B57" s="34" t="s">
         <v>995</v>
       </c>
@@ -13409,7 +13409,7 @@
       <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A70" s="162"/>
+      <c r="A70" s="158"/>
       <c r="B70" s="34" t="s">
         <v>1021</v>
       </c>
@@ -13419,7 +13419,7 @@
       <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="162"/>
+      <c r="A71" s="158"/>
       <c r="B71" s="34" t="s">
         <v>1023</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A72" s="162"/>
+      <c r="A72" s="158"/>
       <c r="B72" s="34" t="s">
         <v>1025</v>
       </c>
@@ -13439,7 +13439,7 @@
       <c r="D72" s="12"/>
     </row>
     <row r="73" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A73" s="163"/>
+      <c r="A73" s="159"/>
       <c r="B73" s="34" t="s">
         <v>1027</v>
       </c>
@@ -13471,7 +13471,7 @@
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A76" s="162"/>
+      <c r="A76" s="158"/>
       <c r="B76" s="46" t="s">
         <v>1034</v>
       </c>
@@ -13479,7 +13479,7 @@
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A77" s="162"/>
+      <c r="A77" s="158"/>
       <c r="B77" s="34" t="s">
         <v>1035</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A78" s="162"/>
+      <c r="A78" s="158"/>
       <c r="B78" s="47" t="s">
         <v>1037</v>
       </c>
@@ -13511,7 +13511,7 @@
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A80" s="162"/>
+      <c r="A80" s="158"/>
       <c r="B80" s="34" t="s">
         <v>1042</v>
       </c>
@@ -13521,7 +13521,7 @@
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A81" s="162"/>
+      <c r="A81" s="158"/>
       <c r="B81" s="34" t="s">
         <v>1043</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A82" s="162"/>
+      <c r="A82" s="158"/>
       <c r="B82" s="34" t="s">
         <v>1045</v>
       </c>
@@ -13541,7 +13541,7 @@
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A83" s="162"/>
+      <c r="A83" s="158"/>
       <c r="B83" s="34" t="s">
         <v>1047</v>
       </c>
@@ -13551,7 +13551,7 @@
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A84" s="162"/>
+      <c r="A84" s="158"/>
       <c r="B84" s="34" t="s">
         <v>1049</v>
       </c>
@@ -13561,7 +13561,7 @@
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A85" s="162"/>
+      <c r="A85" s="158"/>
       <c r="B85" s="34" t="s">
         <v>1051</v>
       </c>
@@ -13571,7 +13571,7 @@
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A86" s="162"/>
+      <c r="A86" s="158"/>
       <c r="B86" s="34" t="s">
         <v>1053</v>
       </c>
@@ -13581,7 +13581,7 @@
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A87" s="162"/>
+      <c r="A87" s="158"/>
       <c r="B87" s="34" t="s">
         <v>1055</v>
       </c>
@@ -13591,7 +13591,7 @@
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="31.05" x14ac:dyDescent="0.25">
-      <c r="A88" s="162"/>
+      <c r="A88" s="158"/>
       <c r="B88" s="34" t="s">
         <v>1057</v>
       </c>
@@ -13601,7 +13601,7 @@
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A89" s="163"/>
+      <c r="A89" s="159"/>
       <c r="B89" s="34" t="s">
         <v>1059</v>
       </c>
@@ -13623,7 +13623,7 @@
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A91" s="162"/>
+      <c r="A91" s="158"/>
       <c r="B91" s="34" t="s">
         <v>1064</v>
       </c>
@@ -13631,7 +13631,7 @@
       <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A92" s="162"/>
+      <c r="A92" s="158"/>
       <c r="B92" s="48" t="s">
         <v>1065</v>
       </c>
@@ -13641,7 +13641,7 @@
       <c r="D92" s="12"/>
     </row>
     <row r="93" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A93" s="162"/>
+      <c r="A93" s="158"/>
       <c r="B93" s="34" t="s">
         <v>1062</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A94" s="162"/>
+      <c r="A94" s="158"/>
       <c r="B94" s="49" t="s">
         <v>1068</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A95" s="162"/>
+      <c r="A95" s="158"/>
       <c r="B95" s="50" t="s">
         <v>1070</v>
       </c>
@@ -13671,7 +13671,7 @@
       <c r="D95" s="12"/>
     </row>
     <row r="96" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A96" s="162"/>
+      <c r="A96" s="158"/>
       <c r="B96" s="49" t="s">
         <v>1072</v>
       </c>
@@ -13681,7 +13681,7 @@
       <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A97" s="163"/>
+      <c r="A97" s="159"/>
       <c r="B97" s="51" t="s">
         <v>1074</v>
       </c>
@@ -13703,7 +13703,7 @@
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A99" s="162"/>
+      <c r="A99" s="158"/>
       <c r="B99" s="52" t="s">
         <v>1079</v>
       </c>
@@ -13711,7 +13711,7 @@
       <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A100" s="162"/>
+      <c r="A100" s="158"/>
       <c r="B100" s="52" t="s">
         <v>1080</v>
       </c>
@@ -13719,7 +13719,7 @@
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A101" s="162"/>
+      <c r="A101" s="158"/>
       <c r="B101" s="52" t="s">
         <v>1081</v>
       </c>
@@ -13727,7 +13727,7 @@
       <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A102" s="162"/>
+      <c r="A102" s="158"/>
       <c r="B102" s="52" t="s">
         <v>1082</v>
       </c>
@@ -13735,7 +13735,7 @@
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A103" s="163"/>
+      <c r="A103" s="159"/>
       <c r="B103" s="52" t="s">
         <v>1083</v>
       </c>
